--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF042EC-B59A-4A6B-9AE0-8E299B708B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979FCED5-8A09-47B6-9A8E-AA91CDBF8C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16230" yWindow="5760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -52,13 +52,37 @@
   </si>
   <si>
     <t>技能ID</t>
+  </si>
+  <si>
+    <t>AttributeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +93,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -95,11 +127,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -367,68 +403,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
     </row>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979FCED5-8A09-47B6-9A8E-AA91CDBF8C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E6F0F-14C3-433A-A470-C79FCFD7ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16230" yWindow="5760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>测试小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观资源ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,6 +101,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +145,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -415,7 +425,7 @@
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +434,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +448,11 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +466,11 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +486,11 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -484,8 +503,11 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>3001</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -497,6 +519,9 @@
       </c>
       <c r="E6">
         <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3001</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E6F0F-14C3-433A-A470-C79FCFD7ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FCF2E-A85E-41D8-91F9-296A8D052CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>外观资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试旋转斧小兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,7 +149,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,7 +451,7 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -466,7 +469,7 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -521,6 +524,23 @@
         <v>2</v>
       </c>
       <c r="F6">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>3001</v>
       </c>
     </row>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FCF2E-A85E-41D8-91F9-296A8D052CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1EA2D-6804-4DC6-B170-D6CE9B71A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="4395" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>SkillID</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -87,6 +84,26 @@
   </si>
   <si>
     <t>测试旋转斧小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpSkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认初始携带道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +166,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -425,10 +443,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="4" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +456,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,102 +464,120 @@
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>3001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>3001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>3001</v>
       </c>
     </row>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1EA2D-6804-4DC6-B170-D6CE9B71A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D95FA-4112-43FC-BF71-EF7CA6928F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="4395" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9228" yWindow="3492" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,7 +166,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,17 +436,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +455,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +469,7 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -480,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -547,7 +546,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -561,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -578,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>3001</v>
+        <v>3051</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D95FA-4112-43FC-BF71-EF7CA6928F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1DEAF-DE46-4AF7-900B-29FC4EA8354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9228" yWindow="3492" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -104,6 +104,26 @@
   </si>
   <si>
     <t>默认初始携带道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleAnimID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunAnimID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +186,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,20 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +476,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +499,15 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +530,14 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +562,14 @@
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -545,8 +585,14 @@
       <c r="H5">
         <v>3001</v>
       </c>
+      <c r="I5">
+        <v>6011</v>
+      </c>
+      <c r="J5">
+        <v>6012</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -562,8 +608,14 @@
       <c r="H6">
         <v>3051</v>
       </c>
+      <c r="I6">
+        <v>6001</v>
+      </c>
+      <c r="J6">
+        <v>6002</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -578,6 +630,12 @@
       </c>
       <c r="H7">
         <v>3051</v>
+      </c>
+      <c r="I7">
+        <v>6001</v>
+      </c>
+      <c r="J7">
+        <v>6002</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1DEAF-DE46-4AF7-900B-29FC4EA8354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AECB4-71C9-4C48-BE5A-3F6EF730A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="7935" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,7 +186,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,7 +532,7 @@
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -577,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="G5">
         <v>1</v>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AECB4-71C9-4C48-BE5A-3F6EF730A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2933657-7929-42A3-88A4-DFA63110DA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="7935" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G5">
         <v>1</v>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2933657-7929-42A3-88A4-DFA63110DA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0894682-8688-4543-AC89-C44B504B694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="7935" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9555" yWindow="5790" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,6 +575,9 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="1">
+        <v>10001</v>
+      </c>
       <c r="F5">
         <v>2002</v>
       </c>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0894682-8688-4543-AC89-C44B504B694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA66DB-E23B-4A5A-BA20-026DA2F76FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="5790" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="12810" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA66DB-E23B-4A5A-BA20-026DA2F76FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F58B2-7BFE-4F72-9D32-C9D999C96332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="12810" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="7020" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,6 +578,9 @@
       <c r="D5" s="1">
         <v>10001</v>
       </c>
+      <c r="E5" s="1">
+        <v>20001002</v>
+      </c>
       <c r="F5">
         <v>2002</v>
       </c>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F58B2-7BFE-4F72-9D32-C9D999C96332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2BE724-F522-4F41-832C-44888F29BAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="7020" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="4390" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,17 +460,17 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +479,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +510,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -581,8 +585,8 @@
       <c r="E5" s="1">
         <v>20001002</v>
       </c>
-      <c r="F5">
-        <v>2002</v>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -597,7 +601,7 @@
         <v>6012</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -620,7 +624,7 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2BE724-F522-4F41-832C-44888F29BAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B650F-053E-4F5D-94FB-CA04F07FEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="4390" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8120" yWindow="5410" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -647,6 +651,29 @@
         <v>6002</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3001</v>
+      </c>
+      <c r="I8">
+        <v>6011</v>
+      </c>
+      <c r="J8">
+        <v>6012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Hero.xlsx
+++ b/Config/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B650F-053E-4F5D-94FB-CA04F07FEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853A9E4-A315-4E88-9DF4-5912C246C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="5410" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-750" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,11 +127,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>20001002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>3</v>
